--- a/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Loan_Portfolio_Analytics.xlsx
@@ -206,7 +206,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: June, 2022           Evaluation Date: June 30, 2022</t>
   </si>
   <si>
-    <t>Printed on: 08/08/2022 2:49:53PM</t>
+    <t>Printed on: 08/09/2022 10:02:23AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1029,7 +1029,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-576B-445B-9D50-4000E33C7A41}"/>
+                <c16:uniqueId val="{00000001-9559-4F72-A41A-296BC794EC50}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1043,7 +1043,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-576B-445B-9D50-4000E33C7A41}"/>
+                <c16:uniqueId val="{00000003-9559-4F72-A41A-296BC794EC50}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1057,7 +1057,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-576B-445B-9D50-4000E33C7A41}"/>
+                <c16:uniqueId val="{00000005-9559-4F72-A41A-296BC794EC50}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1071,7 +1071,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-576B-445B-9D50-4000E33C7A41}"/>
+                <c16:uniqueId val="{00000007-9559-4F72-A41A-296BC794EC50}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1109,7 +1109,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-576B-445B-9D50-4000E33C7A41}"/>
+                  <c16:uniqueId val="{00000005-9559-4F72-A41A-296BC794EC50}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1210,7 +1210,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-576B-445B-9D50-4000E33C7A41}"/>
+              <c16:uniqueId val="{00000008-9559-4F72-A41A-296BC794EC50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1313,7 +1313,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D59B-4F15-BE30-709C1003D07B}"/>
+                <c16:uniqueId val="{00000001-5AC6-46D5-AB71-A7CB7058A68F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1327,7 +1327,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D59B-4F15-BE30-709C1003D07B}"/>
+                <c16:uniqueId val="{00000003-5AC6-46D5-AB71-A7CB7058A68F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1341,7 +1341,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D59B-4F15-BE30-709C1003D07B}"/>
+                <c16:uniqueId val="{00000005-5AC6-46D5-AB71-A7CB7058A68F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1355,7 +1355,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D59B-4F15-BE30-709C1003D07B}"/>
+                <c16:uniqueId val="{00000007-5AC6-46D5-AB71-A7CB7058A68F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1421,7 +1421,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D59B-4F15-BE30-709C1003D07B}"/>
+              <c16:uniqueId val="{00000008-5AC6-46D5-AB71-A7CB7058A68F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
